--- a/Yodelay_Database.xlsx
+++ b/Yodelay_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinlee/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3A2029-BA0F-1C44-B8C1-50C11F6AABC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A8E71A-F5DF-0445-A218-BAEE049D2326}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="460" windowWidth="25300" windowHeight="14660" xr2:uid="{996241E0-BEA5-2C41-B38B-0A966F738645}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="227">
   <si>
     <t>Song_Name_English</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Twitch_Link</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Song_Name_Korean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.twitch.tv/videos/695144053?t=01h48m03s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Start_Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,10 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.twitch.tv/videos/695144053?t=01h39m02s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>01h42m26s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,10 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.twitch.tv/videos/695144053?t=01h51m30s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>01h51m30s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,10 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.twitch.tv/videos/695144053?t=01h55m11s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Jahann Sebastian Bach</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,18 +155,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.twitch.tv/videos/695144053?t=01h58m37s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>01h59m10s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비발라 비바</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Viva La Vida</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,10 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.twitch.tv/videos/695144053?t=02h01m08s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>02h06m40s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,10 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.twitch.tv/videos/695144053?t=02h09m00s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>01h58m37s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,10 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.twitch.tv/videos/695144053?t=02h15m39s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>겨울왕국 2 ost - 올 이즈 파운드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -278,10 +238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.twitch.tv/videos/695144053?t=02h21m21s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>하루</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -326,22 +282,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.twitch.tv/videos/695144053?t=02h27m29s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>02h29m33s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.twitch.tv/videos/695144053?t=02h33m56s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세이 썸씽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Say Something</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -382,18 +326,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.twitch.tv/videos/695144053?t=02h44m46s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>02h48m05s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.twitch.tv/videos/695144053?t=02h49m43s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>When the love falls</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -422,10 +358,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.twitch.tv/videos/695144053?t=02h57m00s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>If I leave</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -466,9 +398,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.twitch.tv/videos/695144053?t=03h04m40s</t>
-  </si>
-  <si>
     <t>03h04m40s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -493,9 +422,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.twitch.tv/videos/695144053?t=03h06m00s</t>
-  </si>
-  <si>
     <t>03h07m41s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -524,18 +450,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.twitch.tv/videos/695144053?t=03h08m35s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>03h09m51s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.twitch.tv/videos/695144053?t=03h12m39s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>폴킴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -564,10 +482,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">https://www.twitch.tv/videos/695144053?t=03h19m06s </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>03h19m06s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -576,18 +490,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.twitch.tv/videos/695144053?t=03h23m16s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Bad Liar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>배드 라이어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이매진 드래곤스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -600,18 +506,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>워리어스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Warriors</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.twitch.tv/videos/695144053?t=03h30m20s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>03h32m14s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -651,11 +549,395 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.twitch.tv/videos/695144053?t=02h39m57s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>02h41m35s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요룰레히</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02h08m33s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>염라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Karma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달의 하루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dareharu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정열대륙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타로 하카세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jounetsu Tairiku</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taro Hakase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02h13m42s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이널 판타지 8 ost - 아이즈 온 미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final Fantasy VIII - Eyes on me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕페이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Faye Wang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02h17m11s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키스 프롬 어 로즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kiss from a rose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02h29m43s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02h33m11s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왓에버 잇 테익스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whatever it takes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라디오액티브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Radioactive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02h37m50s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이 워즈 본 투 러브 유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I was born to love you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이유, 김동률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fairy Tale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02h43m15s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02h46m10s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬픈 인연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nami</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02h55m12s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03h01m37s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't Speak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Doubt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마루코는 아홉살 오프닝 - 춤추는 포포코린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03h05m30s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IU, Kim Dong Ryul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03h16m52s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03h20m49s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>널 사랑하겠어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동물원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03h27m48s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cheese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로맨스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Romance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03h35m29s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Someone You Loved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루이스 카팔디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lewis Capaldi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Now we are free - Gladiator Ost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글래이디에이터 ost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한스 지머</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hans Zimmer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤종신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야생화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박효신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Park Hyo Shin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Wild Flower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테일즈위버 ost - 홍순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tales Weaver ost - Koushin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닐라무드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vanilla Mood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02h16m10s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02h17m53s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구애</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선우정아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G_Minor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바흐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pieces</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If I ain't got you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앨리샤 키스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alicia Keys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Always</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개빈 제임스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gavin James</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Storm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vivaldi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Born</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뮤즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Muse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쥬라기 공원 ost - 메인 주제가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jurassic Park ost - Main Theme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존 윌리엄스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -680,20 +962,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Apple SD Gothic Neo"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -719,22 +1000,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -743,13 +1018,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1061,10 +1344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBB0DD9-D50D-3241-B676-008201D5BF4F}">
-  <dimension ref="B1:J24"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1075,691 +1358,1262 @@
     <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="1:9">
       <c r="F1"/>
     </row>
-    <row r="2" spans="2:10">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:9">
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F3" s="6">
+        <v>44048</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="6">
+        <v>44048</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="C5" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F5" s="6">
+        <v>44048</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="5">
+        <v>22359</v>
+      </c>
+      <c r="I5" s="5">
+        <v>22642</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="C6" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F6" s="6">
+        <v>44048</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="5">
+        <v>23059</v>
+      </c>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6">
+        <v>44048</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" s="5">
+        <v>24900</v>
+      </c>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="F8" s="6">
+        <v>44048</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6">
+        <v>44048</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F10" s="6">
+        <v>44048</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F11" s="6">
+        <v>44048</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F12" s="6">
+        <v>44048</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="C13" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="F13" s="6">
+        <v>44048</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6">
+        <v>44048</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6">
+        <v>44048</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6">
+        <v>44048</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6">
+        <v>44048</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="B18" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F18" s="6">
+        <v>44048</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6">
+        <v>44048</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6">
+        <v>44048</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="B21" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6">
+        <v>44048</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>44045</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="6">
+        <v>44045</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="B23" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="6">
+        <v>44045</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="B24" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" s="6">
+        <v>44045</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="B25" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="6">
+        <v>44045</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="B26" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="6">
+        <v>44045</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="B27" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" s="6">
+        <v>44045</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="6">
+        <v>44045</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="B29" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="6">
+        <v>44045</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="B30" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F30" s="6">
+        <v>44045</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F31" s="6">
+        <v>44045</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="B32" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6">
+        <v>44045</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F33" s="6">
+        <v>44045</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="6">
+        <v>44045</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F35" s="6">
+        <v>44045</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H35" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F36" s="6">
+        <v>44045</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G37" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="H37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10">
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G39" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="C41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G41" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" t="s">
+        <v>42</v>
+      </c>
+      <c r="I41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" t="s">
+        <v>43</v>
+      </c>
+      <c r="I42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" t="s">
+        <v>44</v>
+      </c>
+      <c r="I43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G44" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" t="s">
+        <v>78</v>
+      </c>
+      <c r="I44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F45" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G45" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" t="s">
+        <v>79</v>
+      </c>
+      <c r="I45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G46" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" t="s">
+        <v>80</v>
+      </c>
+      <c r="I46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="C47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G47" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F48" s="1">
         <v>44043</v>
       </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" t="s">
+      <c r="G48" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="H48" t="s">
+        <v>86</v>
+      </c>
+      <c r="I48" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G49" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" t="s">
+        <v>87</v>
+      </c>
+      <c r="I49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B50" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" t="s">
+        <v>75</v>
+      </c>
+      <c r="E50" t="s">
+        <v>76</v>
+      </c>
+      <c r="F50" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G50" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" t="s">
+        <v>88</v>
+      </c>
+      <c r="I50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="B51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" t="s">
+        <v>84</v>
+      </c>
+      <c r="F51" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G51" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" t="s">
+        <v>89</v>
+      </c>
+      <c r="I51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="B52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G52" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" t="s">
+        <v>91</v>
+      </c>
+      <c r="I52" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="B53" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" t="s">
+        <v>108</v>
+      </c>
+      <c r="I53" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="B54" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" t="s">
+        <v>128</v>
+      </c>
+      <c r="F54" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G54" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" t="s">
+        <v>109</v>
+      </c>
+      <c r="I54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="B55" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" t="s">
+        <v>126</v>
+      </c>
+      <c r="D55" t="s">
+        <v>105</v>
+      </c>
+      <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G55" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" t="s">
+        <v>110</v>
+      </c>
+      <c r="I55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="B56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" t="s">
+        <v>124</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F56" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G56" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" t="s">
         <v>112</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="I56" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="C57" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" t="s">
+        <v>115</v>
+      </c>
+      <c r="E57" t="s">
+        <v>116</v>
+      </c>
+      <c r="F57" s="1">
         <v>44043</v>
       </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="G57" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" t="s">
+        <v>120</v>
+      </c>
+      <c r="I57" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="C58" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" t="s">
+        <v>115</v>
+      </c>
+      <c r="E58" t="s">
+        <v>116</v>
+      </c>
+      <c r="F58" s="1">
         <v>44043</v>
       </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="1">
-        <v>44043</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="1">
-        <v>44043</v>
-      </c>
-      <c r="G7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="1">
-        <v>44043</v>
-      </c>
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="1">
-        <v>44043</v>
-      </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="1">
-        <v>44043</v>
-      </c>
-      <c r="G10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" t="s">
-        <v>94</v>
-      </c>
-      <c r="J10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="1">
-        <v>44043</v>
-      </c>
-      <c r="G11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" t="s">
-        <v>95</v>
-      </c>
-      <c r="J11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="1">
-        <v>44043</v>
-      </c>
-      <c r="G12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" t="s">
-        <v>96</v>
-      </c>
-      <c r="J12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="1">
-        <v>44043</v>
-      </c>
-      <c r="G13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" t="s">
-        <v>102</v>
-      </c>
-      <c r="J13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="1">
-        <v>44043</v>
-      </c>
-      <c r="G14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="I14" t="s">
-        <v>103</v>
-      </c>
-      <c r="J14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="1">
-        <v>44043</v>
-      </c>
-      <c r="G15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I15" t="s">
-        <v>104</v>
-      </c>
-      <c r="J15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" s="1">
-        <v>44043</v>
-      </c>
-      <c r="G16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I16" t="s">
-        <v>105</v>
-      </c>
-      <c r="J16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="1">
-        <v>44043</v>
-      </c>
-      <c r="G17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I17" t="s">
-        <v>106</v>
-      </c>
-      <c r="J17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="1">
-        <v>44043</v>
-      </c>
-      <c r="G18" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I18" t="s">
-        <v>109</v>
-      </c>
-      <c r="J18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" t="s">
-        <v>118</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="G58" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" t="s">
+        <v>121</v>
+      </c>
+      <c r="I58" t="s">
         <v>119</v>
-      </c>
-      <c r="F19" s="1">
-        <v>44043</v>
-      </c>
-      <c r="G19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" t="s">
-        <v>153</v>
-      </c>
-      <c r="D20" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" t="s">
-        <v>154</v>
-      </c>
-      <c r="F20" s="1">
-        <v>44043</v>
-      </c>
-      <c r="G20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I20" t="s">
-        <v>130</v>
-      </c>
-      <c r="J20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" t="s">
-        <v>152</v>
-      </c>
-      <c r="D21" t="s">
-        <v>126</v>
-      </c>
-      <c r="E21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21" s="1">
-        <v>44043</v>
-      </c>
-      <c r="G21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I21" t="s">
-        <v>131</v>
-      </c>
-      <c r="J21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" t="s">
-        <v>150</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F22" s="1">
-        <v>44043</v>
-      </c>
-      <c r="G22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I22" t="s">
-        <v>134</v>
-      </c>
-      <c r="J22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" t="s">
-        <v>138</v>
-      </c>
-      <c r="C23" t="s">
-        <v>137</v>
-      </c>
-      <c r="D23" t="s">
-        <v>139</v>
-      </c>
-      <c r="E23" t="s">
-        <v>140</v>
-      </c>
-      <c r="F23" s="1">
-        <v>44043</v>
-      </c>
-      <c r="G23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I23" t="s">
-        <v>146</v>
-      </c>
-      <c r="J23" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" t="s">
-        <v>143</v>
-      </c>
-      <c r="D24" t="s">
-        <v>139</v>
-      </c>
-      <c r="E24" t="s">
-        <v>140</v>
-      </c>
-      <c r="F24" s="1">
-        <v>44043</v>
-      </c>
-      <c r="G24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I24" t="s">
-        <v>147</v>
-      </c>
-      <c r="J24" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" xr:uid="{0ED8509D-DAAC-7E4B-99AD-1A27B58AD815}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{A0CC3F96-430D-AC49-9B50-D17372724267}"/>
-    <hyperlink ref="H5" r:id="rId3" xr:uid="{FFC285CC-8B51-B644-BF7F-05A74492C9AD}"/>
-    <hyperlink ref="H6" r:id="rId4" xr:uid="{D0AB27CD-32DF-1749-BD6D-D9F31C75095A}"/>
-    <hyperlink ref="H7" r:id="rId5" xr:uid="{0AE6A06F-F272-9B4E-B16E-D462139545B5}"/>
-    <hyperlink ref="H8" r:id="rId6" xr:uid="{AD9542B4-284D-5541-9BD8-8D99B1BA05D0}"/>
-    <hyperlink ref="H9" r:id="rId7" xr:uid="{08B954C2-5C28-D04C-9AE7-A45A5FDA96E7}"/>
-    <hyperlink ref="H10" r:id="rId8" xr:uid="{D9F24F9A-113E-B942-9505-12D53966BD83}"/>
-    <hyperlink ref="H11" r:id="rId9" xr:uid="{A2F35048-9F75-A644-AF87-E74B9DECDA35}"/>
-    <hyperlink ref="H13" r:id="rId10" xr:uid="{3A280A59-09DD-8040-BCE6-011F3BC9EF22}"/>
-    <hyperlink ref="H12" r:id="rId11" display="https://www.twitch.tv/videos/695144053?t=02h09m00s" xr:uid="{ABFFF23B-FA52-354F-838B-F8AF744E3C2F}"/>
-    <hyperlink ref="H14" r:id="rId12" xr:uid="{96BB779B-7F94-8848-826C-852EBF4868CA}"/>
-    <hyperlink ref="H15" r:id="rId13" xr:uid="{AFF4F837-5199-F449-990E-5B826B540783}"/>
-    <hyperlink ref="H16" r:id="rId14" xr:uid="{B1CB1500-E9E6-5846-9B2F-1F360AEF0305}"/>
-    <hyperlink ref="H17" r:id="rId15" xr:uid="{C6E77A42-1128-DC4B-98C8-647D219359B9}"/>
-    <hyperlink ref="H20" r:id="rId16" xr:uid="{C008498B-EBF6-1146-90DC-F80C81DA8E48}"/>
-    <hyperlink ref="H21" r:id="rId17" xr:uid="{2CACD414-3C53-CE4C-8B10-24003AF616FB}"/>
-    <hyperlink ref="H22" r:id="rId18" xr:uid="{A6430695-A789-A249-A7DA-54E028D6C8A2}"/>
-    <hyperlink ref="H23" r:id="rId19" xr:uid="{F7E46BA1-6960-F44C-8F54-627A6B2F5A5B}"/>
-    <hyperlink ref="H24" r:id="rId20" xr:uid="{CB59DFF0-01D0-A748-A0CF-CBD8E4845E73}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>